--- a/src/main/resources/template/excel/export/onlineOrderSearchListExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/onlineOrderSearchListExportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\liwb\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,6 +58,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
+    <t>合计：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(G3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(I3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>订单号</t>
   </si>
   <si>
@@ -68,9 +84,17 @@
     <t>订单状态</t>
   </si>
   <si>
+    <t>${obj.orderStatusStr}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>收货人</t>
   </si>
   <si>
+    <t>${obj.userName}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>联系电话</t>
   </si>
   <si>
@@ -158,6 +182,10 @@
     <t>收货地址</t>
   </si>
   <si>
+    <t>${obj.address}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>线上订单编号</t>
   </si>
   <si>
@@ -165,43 +193,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>合计：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(G3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(H3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(I3+0)]</t>
+    <t>用户留言</t>
+  </si>
+  <si>
+    <t>${obj.remark}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>线上订单查询</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.userName}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.orderStatusStr}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.address}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户留言</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.remark}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -329,9 +328,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,6 +337,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,193 +653,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="11" customWidth="1"/>
-    <col min="8" max="8" width="21.75" style="11" customWidth="1"/>
-    <col min="9" max="9" width="20" style="11" customWidth="1"/>
-    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.75" customWidth="1"/>
-    <col min="15" max="15" width="26.75" customWidth="1"/>
-    <col min="16" max="17" width="25.75" customWidth="1"/>
-    <col min="18" max="18" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="25.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.25" style="10" customWidth="1"/>
+    <col min="17" max="17" width="23.625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="14.625" style="10" customWidth="1"/>
     <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="M2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>39</v>
+      <c r="N2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>40</v>
+      <c r="R3" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/excel/export/onlineOrderSearchListExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/onlineOrderSearchListExportTemplate.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="R4")</t>
+          <t>jx:area(lastCell="S4")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="R3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="S3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>合计：</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -201,6 +201,14 @@
   </si>
   <si>
     <t>线上订单查询</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.ticketNo}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小票号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -335,17 +343,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -675,34 +683,35 @@
     <col min="14" max="14" width="21.625" style="10" customWidth="1"/>
     <col min="15" max="15" width="25.625" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25.25" style="10" customWidth="1"/>
-    <col min="17" max="17" width="23.625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="14.625" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="3"/>
+    <col min="17" max="18" width="23.625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="14.625" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -755,10 +764,13 @@
         <v>36</v>
       </c>
       <c r="R2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -777,7 +789,7 @@
       <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -811,10 +823,13 @@
         <v>37</v>
       </c>
       <c r="R3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -823,13 +838,13 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="8"/>
@@ -841,10 +856,11 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/src/main/resources/template/excel/export/onlineOrderSearchListExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/onlineOrderSearchListExportTemplate.xlsx
@@ -62,18 +62,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(H3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(I3+0)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>订单号</t>
   </si>
   <si>
@@ -209,6 +197,18 @@
   </si>
   <si>
     <t>小票号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(G3:G3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3:H3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(I3:I3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -216,8 +216,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -319,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -343,17 +344,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,7 +666,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -689,144 +693,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -838,14 +842,14 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>3</v>
+      <c r="G4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -867,7 +871,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C5:C1048576 B3"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>